--- a/Term Project/Phase 3/insert script/recipes.xlsx
+++ b/Term Project/Phase 3/insert script/recipes.xlsx
@@ -67,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -228,12 +229,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C9"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,7 +248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -258,7 +259,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -269,7 +270,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -280,7 +281,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -291,7 +292,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -299,10 +300,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -310,10 +311,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -321,10 +322,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -332,7 +333,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>1055</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
